--- a/Wedding/Vendor Costings.xlsx
+++ b/Wedding/Vendor Costings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenny.Lim\Desktop\Wedding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inforonline-my.sharepoint.com/personal/kenny_lim_infor_com/Documents/Desktop/GitHub/About/Wedding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9361B4C9-3234-467D-87A9-5B045C958E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{9361B4C9-3234-467D-87A9-5B045C958E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A33369F-E188-40F1-AA50-0DA8EEB06AE2}"/>
   <bookViews>
-    <workbookView xWindow="-28660" yWindow="6070" windowWidth="21540" windowHeight="12560" xr2:uid="{32757893-5A81-40E6-85E9-2923B5788D18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32757893-5A81-40E6-85E9-2923B5788D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,14 +818,14 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2">
         <v>23</v>
       </c>
       <c r="D8" s="2">
         <f>PRODUCT(C8,B8)</f>
-        <v>2760</v>
+        <v>2300</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>37</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="D10" s="2">
         <f>SUM(D4:D9)</f>
-        <v>15760</v>
+        <v>15300</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>39</v>
@@ -894,7 +894,7 @@
       </c>
       <c r="D11" s="2">
         <f>PRODUCT(D10, 0.1)</f>
-        <v>1576</v>
+        <v>1530</v>
       </c>
       <c r="F11" s="6"/>
       <c r="H11" s="2"/>
@@ -909,7 +909,7 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D10:D11)*0.07</f>
-        <v>1213.5200000000002</v>
+        <v>1178.1000000000001</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -922,7 +922,7 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D10:D12)</f>
-        <v>18549.52</v>
+        <v>18008.099999999999</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Wedding/Vendor Costings.xlsx
+++ b/Wedding/Vendor Costings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inforonline-my.sharepoint.com/personal/kenny_lim_infor_com/Documents/Desktop/GitHub/About/Wedding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenny.Lim\Desktop\Lighthouse Repos\About\Wedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{9361B4C9-3234-467D-87A9-5B045C958E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A33369F-E188-40F1-AA50-0DA8EEB06AE2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABFAE57-67C9-418E-843D-9786B8E25B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32757893-5A81-40E6-85E9-2923B5788D18}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="23500" xr2:uid="{32757893-5A81-40E6-85E9-2923B5788D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="50">
   <si>
     <t>Description</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>beer barrel</t>
+  </si>
+  <si>
+    <t>200ml Mocktail door gift</t>
+  </si>
+  <si>
+    <t>Tables and Chairs</t>
   </si>
 </sst>
 </file>
@@ -593,27 +599,27 @@
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -621,7 +627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -700,7 +706,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -738,7 +744,7 @@
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -776,7 +782,7 @@
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -813,19 +819,19 @@
       </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2">
         <v>23</v>
       </c>
       <c r="D8" s="2">
         <f>PRODUCT(C8,B8)</f>
-        <v>2300</v>
+        <v>2116</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>37</v>
@@ -844,8 +850,20 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <f>PRODUCT(C9,B9)</f>
+        <v>0</v>
+      </c>
       <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
@@ -863,13 +881,19 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>12</v>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1500</v>
       </c>
       <c r="D10" s="2">
-        <f>SUM(D4:D9)</f>
-        <v>15300</v>
+        <f>PRODUCT(C10,B10)</f>
+        <v>1500</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>39</v>
@@ -888,14 +912,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
-        <f>PRODUCT(D10, 0.1)</f>
-        <v>1530</v>
-      </c>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F11" s="6"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -903,29 +920,29 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
-        <f>SUM(D10:D11)*0.07</f>
-        <v>1178.1000000000001</v>
-      </c>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
-        <f>SUM(D10:D12)</f>
-        <v>18008.099999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <f>SUM(D4:D10)</f>
+        <v>16616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
+        <f>PRODUCT(D13, 0.1)</f>
+        <v>1661.6000000000001</v>
+      </c>
       <c r="H14" t="s">
         <v>12</v>
       </c>
@@ -941,11 +958,25 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM(D13:D14)*0.07</f>
+        <v>1279.432</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(D13:D15)</f>
+        <v>19557.031999999999</v>
+      </c>
       <c r="H16" t="s">
         <v>15</v>
       </c>
@@ -961,7 +992,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
@@ -969,7 +1000,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +1032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +1047,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1031,7 +1062,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1077,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1061,7 +1092,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1076,7 +1107,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1106,7 +1137,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -1115,7 +1146,7 @@
         <v>19860</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>13</v>
       </c>
@@ -1124,7 +1155,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -1133,7 +1164,7 @@
         <v>1529.2200000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -1142,7 +1173,7 @@
         <v>23375.22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="8" t="s">
         <v>28</v>
       </c>
@@ -1150,7 +1181,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -1182,7 +1213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1200,7 +1231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1218,7 +1249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1233,7 +1264,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1279,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1263,7 +1294,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
@@ -1278,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1293,7 +1324,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -1302,7 +1333,7 @@
         <v>16860</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>13</v>
       </c>
@@ -1311,7 +1342,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -1320,7 +1351,7 @@
         <v>1298.22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -1329,7 +1360,7 @@
         <v>19844.22</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A50" s="8" t="s">
         <v>26</v>
       </c>
@@ -1337,7 +1368,7 @@
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1397,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1381,7 +1412,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1427,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>7</v>
       </c>
@@ -1411,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1426,7 +1457,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1441,7 +1472,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>10</v>
       </c>
@@ -1456,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -1471,7 +1502,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
         <v>12</v>
       </c>
@@ -1480,7 +1511,7 @@
         <v>16260</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
         <v>13</v>
       </c>
@@ -1489,7 +1520,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -1498,7 +1529,7 @@
         <v>1252.0200000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
         <v>15</v>
       </c>
@@ -1507,7 +1538,7 @@
         <v>19138.02</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A66" s="8" t="s">
         <v>17</v>
       </c>
@@ -1515,7 +1546,7 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,7 +1575,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>5</v>
       </c>
@@ -1562,7 +1593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1580,7 +1611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>7</v>
       </c>
@@ -1598,7 +1629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -1613,7 +1644,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>9</v>
       </c>
@@ -1631,7 +1662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>10</v>
       </c>
@@ -1649,7 +1680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -1664,7 +1695,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
         <v>12</v>
       </c>
@@ -1673,7 +1704,7 @@
         <v>13760</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
         <v>13</v>
       </c>
@@ -1682,7 +1713,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
         <v>14</v>
       </c>
@@ -1691,7 +1722,7 @@
         <v>1059.5200000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -1700,7 +1731,7 @@
         <v>16195.52</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A82" s="8" t="s">
         <v>19</v>
       </c>
@@ -1708,7 +1739,7 @@
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
     </row>
-    <row r="83" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>4</v>
       </c>
@@ -1737,7 +1768,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>5</v>
       </c>
@@ -1752,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -1767,7 +1798,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>7</v>
       </c>
@@ -1782,7 +1813,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -1797,7 +1828,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>9</v>
       </c>
@@ -1812,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>10</v>
       </c>
@@ -1827,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>11</v>
       </c>
@@ -1842,7 +1873,7 @@
         <v>2858.4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C93" t="s">
         <v>12</v>
       </c>
@@ -1851,7 +1882,7 @@
         <v>13858.4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C94" t="s">
         <v>13</v>
       </c>
@@ -1860,7 +1891,7 @@
         <v>1385.8400000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C95" t="s">
         <v>14</v>
       </c>
@@ -1869,7 +1900,7 @@
         <v>1067.0968</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C96" t="s">
         <v>15</v>
       </c>
@@ -1878,13 +1909,13 @@
         <v>16311.336799999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>5000</v>
       </c>
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>15</v>
       </c>
@@ -1892,7 +1923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>18</v>
       </c>
@@ -1900,7 +1931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>35</v>
       </c>

--- a/Wedding/Vendor Costings.xlsx
+++ b/Wedding/Vendor Costings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenny.Lim\Desktop\Lighthouse Repos\About\Wedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABFAE57-67C9-418E-843D-9786B8E25B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400B62F1-FA5A-467C-95C3-26378FA8AF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="23500" xr2:uid="{32757893-5A81-40E6-85E9-2923B5788D18}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Wedding/Vendor Costings.xlsx
+++ b/Wedding/Vendor Costings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenny.Lim\Desktop\Lighthouse Repos\About\Wedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400B62F1-FA5A-467C-95C3-26378FA8AF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D6EAA0-8D7A-4F25-B6CE-C08DF4D6869E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="23500" xr2:uid="{32757893-5A81-40E6-85E9-2923B5788D18}"/>
+    <workbookView xWindow="2370" yWindow="3870" windowWidth="21600" windowHeight="12585" xr2:uid="{32757893-5A81-40E6-85E9-2923B5788D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -599,27 +599,27 @@
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -627,7 +627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -706,7 +706,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -744,7 +744,7 @@
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -782,7 +782,7 @@
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -819,7 +819,7 @@
       </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -858,11 +858,11 @@
         <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
         <f>PRODUCT(C9,B9)</f>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>38</v>
@@ -881,7 +881,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F11" s="6"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -920,28 +920,28 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2">
         <f>SUM(D4:D10)</f>
-        <v>16616</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>16876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2">
         <f>PRODUCT(D13, 0.1)</f>
-        <v>1661.6000000000001</v>
+        <v>1687.6000000000001</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
@@ -958,24 +958,24 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="2">
         <f>SUM(D13:D14)*0.07</f>
-        <v>1279.432</v>
+        <v>1299.452</v>
       </c>
       <c r="I15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2">
         <f>SUM(D13:D15)</f>
-        <v>19557.031999999999</v>
+        <v>19863.052</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -992,7 +992,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1000,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>12</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>19860</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>13</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>1529.2200000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>23375.22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:6" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
         <v>28</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>16860</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>13</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>14</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>1298.22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>19844.22</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:4" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
         <v>26</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>7</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>10</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>12</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>16260</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>13</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>1252.0200000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>15</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>19138.02</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:5" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="8" t="s">
         <v>17</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>4</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>5</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>7</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>9</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>10</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>12</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>13760</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>13</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>14</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>1059.5200000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>16195.52</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:4" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="8" t="s">
         <v>19</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
     </row>
-    <row r="83" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>4</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>5</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>7</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>9</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>10</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>11</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>2858.4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>12</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>13858.4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>13</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>1385.8400000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>14</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>1067.0968</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>15</v>
       </c>
@@ -1909,13 +1909,13 @@
         <v>16311.336799999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>5000</v>
       </c>
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>15</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>18</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>35</v>
       </c>
